--- a/src/main/resources/light_weight_data/bd2e9109-ed97-4ec1-a4c5-bb8492146f3b_data.xlsx
+++ b/src/main/resources/light_weight_data/bd2e9109-ed97-4ec1-a4c5-bb8492146f3b_data.xlsx
@@ -195,26 +195,26 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jEzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>mpNeU16SjE1WWVnNUxpcTZaK3A1WW1uTVRFeE1qST0xMTEyMg==</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>lRZMk9ESXlNVE0yTVRZd01Ua3dORFkwTURFeE1USXkxMTEyMg==</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>npJek1qTXhNVEV5TWc9PTExMTIy</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -225,26 +225,26 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>~jEzMjMxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>mpNeU16SjE1WWVnNUxpcTZaK3A1WW1uTVRFeE1qST0xMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>lRZMk9ESXlNVE0yTVRZd01Ua3dORFkwTURFeE1USXkxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>npJek1qTXhNVEV5TWc9PTExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -255,86 +255,86 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>21323</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jMyMzLlt6jljJbogqHku7125rKh6YKj5Liq6KGl5beu5Lu35Yia5Y+RMTExMjI=</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~zIzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>mQyZTkxMDktZWQ5Ny00ZWMxLWE0YzUtYmI4NDkyMTQ2ZjNiMTExMjI=</t>
+          <t>bd2e9109-ed97-4ec1-a4c5-bb8492146f3b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>21323</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>~jMyMzLlt6jljJbogqHku7125rKh6YKj5Liq6KGl5beu5Lu35Yia5Y+RMTExMjI=</t>
+          <t>lRFeU5ERXlNVEl4TVRFeU1nPT0xMTEyMg==</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
+          <t>lRFeE1USXkxMTEyMg==</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>~zIzMjMxMTEyMg==</t>
+          <t>lRFeE1USXkxMTEyMg==</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>bd2e9109-ed97-4ec1-a4c5-bb8492146f3b</t>
+          <t>mQyZTkxMDktZWQ5Ny00ZWMxLWE0YzUtYmI4NDkyMTQ2ZjNiMTExMjI=</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jEzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>lRFeU5ERXlNVEl4TVRFeU1nPT0xMTEyMg==</t>
+          <t>~jMyMzIxMTEyMg==</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>lRFeE1USXkxMTEyMg==</t>
+          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>lRFeE1USXkxMTEyMg==</t>
+          <t>~zIzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -345,56 +345,56 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>~jEzMjMxMTEyMg==</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>~jMyMzIxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>~zIzMjMxMTEyMg==</t>
+          <t>~TU0NTExMTIy</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>mQyZTkxMDktZWQ5Ny00ZWMxLWE0YzUtYmI4NDkyMTQ2ZjNiMTExMjI=</t>
+          <t>bd2e9109-ed97-4ec1-a4c5-bb8492146f3b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jEzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jMyMzIxMTEyMg==</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~zIzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -405,26 +405,26 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>~jEzMjMxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>~jMyMzIxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>~zIzMjMxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -435,26 +435,26 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jEzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jMyMzIxMTEyMg==</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~zIzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -465,26 +465,26 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>~jEzMjMxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>~jMyMzIxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>~zIzMjMxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -495,26 +495,26 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jEzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jMyMzIxMTEyMg==</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~zIzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -525,26 +525,26 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>~jEzMjMxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>~jMyMzIxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>~zIzMjMxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -555,26 +555,26 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jEzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jMyMzIxMTEyMg==</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~zIzMjMxMTEyMg==</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -585,26 +585,27 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>~jEzMjMxMTEyMg==</t>
+          <t>WFhMTExMjI=</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>~jMyMzIxMTEyMg==</t>
+          <t>WFhMTExMjI=</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>~TY2ODIyMTM2MTYwMTkwNDY0MDExMTIy</t>
+          <t>+DIzN3UoaTQxMTEyMg==</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>~zIzMjMxMTEyMg==</t>
+          <t>WFhMTExMjI=</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -615,29 +616,24 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>WFhMTExMjI=</t>
+          <t>fZGo6aao546yMTExMjI=</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>WFhMTExMjI=</t>
+          <t>fZGo55qE55qE5L2G5pivMTExMjI=</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-DIzN3UoaTQxMTEyMg==</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>WFhMTExMjI=</t>
-        </is>
-      </c>
+          <t>~iMzODRFMjgxMTEyMg==</t>
+        </is>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="inlineStr">
         <is>
           <t>mQyZTkxMDktZWQ5Ny00ZWMxLWE0YzUtYmI4NDkyMTQ2ZjNiMTExMjI=</t>
@@ -646,24 +642,28 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>fZGo6aao546yMTExMjI=</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>fZGo55qE55qE5L2G5pivMTExMjI=</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>~iMzODRFMjgxMTEyMg==</t>
-        </is>
-      </c>
-      <c r="E19" s="2"/>
+          <t>~TExMTIy</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>~TExMTIy</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
           <t>mQyZTkxMDktZWQ5Ny00ZWMxLWE0YzUtYmI4NDkyMTQ2ZjNiMTExMjI=</t>
@@ -672,26 +672,26 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~jM0MTExMjI=</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>2V3MTExMjI=</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>TlzXUY1WDYxMTEyMg==</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>XcxMTEyMg==</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -702,26 +702,26 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>~jM0MTExMjI=</t>
+          <t>~TIxMjExMTIy</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2V3MTExMjI=</t>
+          <t>~TIxMjExMTIy</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>TlzXUY1WDYxMTEyMg==</t>
+          <t>DRfUlUrUCYxMTEyMg==</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>XcxMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -732,21 +732,21 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>~TIxMjExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>~TIxMjExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>DRfUlUrUCYxMTEyMg==</t>
+          <t>~lspKCVxTl4xMTEyMg==</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -762,7 +762,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>~lspKCVxTl4xMTEyMg==</t>
+          <t>~2wjXThfUTkxMTEyMg==</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -792,28 +792,24 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TExMTEyMg==</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TExMTEyMg==</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>~2wjXThfUTkxMTEyMg==</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>~TExMTIy</t>
-        </is>
-      </c>
+          <t>{UVfcDUxQlYxMTEyMg==</t>
+        </is>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2" t="inlineStr">
         <is>
           <t>mQyZTkxMDktZWQ5Ny00ZWMxLWE0YzUtYmI4NDkyMTQ2ZjNiMTExMjI=</t>
@@ -822,24 +818,28 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>~TExMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>~TExMTEyMg==</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>{UVfcDUxQlYxMTEyMg==</t>
-        </is>
-      </c>
-      <c r="E25" s="2"/>
+          <t>VM2XnYzYVExMTEyMg==</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>~TExMTIy</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
           <t>mQyZTkxMDktZWQ5Ny00ZWMxLWE0YzUtYmI4NDkyMTQ2ZjNiMTExMjI=</t>
@@ -848,7 +848,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>VM2XnYzYVExMTEyMg==</t>
+          <t>kYqQE04aDYxMTEyMg==</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -878,26 +878,26 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TIxMTEyMg==</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TIxMjExMTIy</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>kYqQE04aDYxMTEyMg==</t>
+          <t>itvNXAjN2QxMTEyMg==</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>~TExMTIy</t>
+          <t>~TIxMTEyMg==</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
